--- a/plan_data_new.xlsx
+++ b/plan_data_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="8" r:id="rId1"/>
@@ -442,34 +442,34 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -483,13 +483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -500,7 +500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -522,7 +522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -533,7 +533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -555,7 +555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -588,7 +588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -621,7 +621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -685,13 +685,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -699,7 +699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -715,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -723,7 +723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -739,7 +739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -755,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -763,7 +763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -771,7 +771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -795,7 +795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -803,7 +803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -811,7 +811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -832,15 +832,15 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -867,12 +867,12 @@
       <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -894,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -905,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>

--- a/plan_data_new.xlsx
+++ b/plan_data_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="8" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="constr" sheetId="11" r:id="rId3"/>
     <sheet name="results" sheetId="7" r:id="rId4"/>
     <sheet name="tasks (2)" sheetId="9" r:id="rId5"/>
+    <sheet name="downtime" sheetId="12" r:id="rId6"/>
+    <sheet name="start_after" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>Id_product</t>
   </si>
@@ -484,7 +486,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +866,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,4 +921,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan_data_new.xlsx
+++ b/plan_data_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="8" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="results" sheetId="7" r:id="rId4"/>
     <sheet name="tasks (2)" sheetId="9" r:id="rId5"/>
     <sheet name="downtime" sheetId="12" r:id="rId6"/>
-    <sheet name="start_after" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>Id_product</t>
   </si>
@@ -121,6 +120,12 @@
   </si>
   <si>
     <t>J16</t>
+  </si>
+  <si>
+    <t>dt_start</t>
+  </si>
+  <si>
+    <t>dt_end</t>
   </si>
 </sst>
 </file>
@@ -925,69 +930,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
       <c r="B3">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/plan_data_new.xlsx
+++ b/plan_data_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t>Id_product</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>J16</t>
+  </si>
+  <si>
+    <t>J17</t>
   </si>
 </sst>
 </file>
@@ -444,34 +447,34 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -483,15 +486,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -502,7 +505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -513,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -524,7 +527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -535,7 +538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -546,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -557,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -568,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -579,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -590,7 +593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -601,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -612,7 +615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -623,7 +626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -634,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -645,7 +648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -656,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -667,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -676,6 +679,17 @@
       </c>
       <c r="C17">
         <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -688,12 +702,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -701,7 +715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -709,7 +723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -717,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -725,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -733,7 +747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -741,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -749,7 +763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -757,7 +771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -765,7 +779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -773,7 +787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -781,7 +795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -789,7 +803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -797,7 +811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -805,7 +819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -813,7 +827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -834,15 +848,15 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -869,12 +883,12 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -885,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -896,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -907,7 +921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -931,9 +945,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -941,12 +955,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -960,13 +974,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -974,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -982,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>

--- a/plan_data_new.xlsx
+++ b/plan_data_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Id_product</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>dt_end</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>DT2</t>
   </si>
 </sst>
 </file>
@@ -930,44 +936,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>30</v>
       </c>
     </row>

--- a/plan_data_new.xlsx
+++ b/plan_data_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
   <si>
     <t>Id_product</t>
   </si>
@@ -124,6 +124,51 @@
   </si>
   <si>
     <t>J17</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>J22</t>
+  </si>
+  <si>
+    <t>J23</t>
+  </si>
+  <si>
+    <t>J24</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>J27</t>
+  </si>
+  <si>
+    <t>J28</t>
+  </si>
+  <si>
+    <t>J29</t>
+  </si>
+  <si>
+    <t>J30</t>
+  </si>
+  <si>
+    <t>J31</t>
+  </si>
+  <si>
+    <t>J32</t>
   </si>
 </sst>
 </file>
@@ -139,15 +184,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,12 +206,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -486,10 +552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +572,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -594,7 +660,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
@@ -682,14 +748,179 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +930,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,66 +947,66 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -820,19 +1051,219 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/plan_data_new.xlsx
+++ b/plan_data_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="8" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="results" sheetId="7" r:id="rId4"/>
     <sheet name="tasks (2)" sheetId="9" r:id="rId5"/>
     <sheet name="downtime" sheetId="12" r:id="rId6"/>
-    <sheet name="start_after" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Id_product</t>
   </si>
@@ -121,6 +120,18 @@
   </si>
   <si>
     <t>J16</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>dt_start</t>
+  </si>
+  <si>
+    <t>dt_end</t>
   </si>
 </sst>
 </file>
@@ -925,69 +936,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
